--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_5 P_39分支和循环语句-do-while循环练习完+函数.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_5 P_39分支和循环语句-do-while循环练习完+函数.xlsx
@@ -16,13 +16,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>goto不能跨函数跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>goto一次就跳出了，如果break就要像盗梦空间一样一层一层往回倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数来了！！！！非常重要！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们经常要进行这些操作是吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK，那我们来组个库，没bug的，大家统一用这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC大佬都各自写了他们的代码，是不是冗余？是不是有BUG？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是很nice？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么会这样？来，看——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传参不传址，所以只把数据给了过去，但是它并不是原来那个数据，它是个复制体，复制体郑吒在恶魔小队再牛，关你中州队郑吒啥事呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当实参传递给形参的时候，形参是实参的一份临时拷贝，所以对形参的修改不会影响实参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,9 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -317,6 +360,842 @@
         <a:xfrm>
           <a:off x="314325" y="11496675"/>
           <a:ext cx="13971428" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56520</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>171251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="17440275"/>
+          <a:ext cx="5038095" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161374</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>56669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="19354800"/>
+          <a:ext cx="4409524" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>465519</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>75689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="23593425"/>
+          <a:ext cx="9647619" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409144</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>161715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191125" y="27974925"/>
+          <a:ext cx="3447619" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561529</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="28184475"/>
+          <a:ext cx="3571429" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56673</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>9354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="30356175"/>
+          <a:ext cx="3819048" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360637</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>151773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="32165925"/>
+          <a:ext cx="10504762" cy="5019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>84694</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>47162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12411075" y="32861250"/>
+          <a:ext cx="8247619" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304087</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>47217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="38100000"/>
+          <a:ext cx="5704762" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>494411</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>75746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="37938075"/>
+          <a:ext cx="7114286" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>270643</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>94488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="42005249"/>
+          <a:ext cx="7909693" cy="4723639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485332</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>133210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12715875" y="42729150"/>
+          <a:ext cx="3542857" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227805</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>18570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="47101125"/>
+          <a:ext cx="6361905" cy="3838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>370421</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>66288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="52006500"/>
+          <a:ext cx="8428571" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>580537</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>94840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="55283100"/>
+          <a:ext cx="3904762" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361209</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>66257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="55187850"/>
+          <a:ext cx="5923809" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618501</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>104623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="59235975"/>
+          <a:ext cx="4990476" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>303918</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>113612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="68160900"/>
+          <a:ext cx="7057143" cy="5504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484875</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>27873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="60588525"/>
+          <a:ext cx="7200000" cy="5619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485246</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>95183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="67456050"/>
+          <a:ext cx="4228571" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>126743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>570281</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="67163693"/>
+          <a:ext cx="11457356" cy="7474207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>502874</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>170774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="76200000"/>
+          <a:ext cx="15609524" cy="5409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="O30:Z43"/>
+  <dimension ref="E30:Z441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Z72" sqref="Z72"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="U489" sqref="U489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,6 +1512,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M122" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="5:21" x14ac:dyDescent="0.15">
+      <c r="E168" t="s">
+        <v>3</v>
+      </c>
+      <c r="U168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="9:16" x14ac:dyDescent="0.15">
+      <c r="I177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="9:16" x14ac:dyDescent="0.15">
+      <c r="P180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="5:21" x14ac:dyDescent="0.15">
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="5:21" x14ac:dyDescent="0.15">
+      <c r="U246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N409" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R438" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R441" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,12 +1570,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="127.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
